--- a/Guatemala/CENSO 2018/Cuadro A5 - Población total por pueblos.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A5 - Población total por pueblos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Comunicaciones REDD Dropbox\Patricio Emanuelli\0000 DOCUMENTACIÓN REDD+ Guatemala\MRV_REDD_Guatemala\BD_GT\CENSO 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA1B8AD-4B32-4771-AC8B-416571768CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645030E2-E5A4-4381-B096-72B900CB3BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A5_1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A5_1!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">A5_2!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="367">
   <si>
     <t>Fuente: INE, XII Censo Nacional  de Población y VII de Vivienda - 2018</t>
   </si>
@@ -1109,25 +1118,28 @@
     <t>Quesada</t>
   </si>
   <si>
-    <t>Pueblo de pertenencia: Maya</t>
-  </si>
-  <si>
     <t>Código2</t>
   </si>
   <si>
-    <t>Pueblo de pertenencia: Maya3</t>
-  </si>
-  <si>
-    <t>Pueblo de pertenencia: Maya4</t>
-  </si>
-  <si>
-    <t>Pueblo de pertenencia: Maya5</t>
-  </si>
-  <si>
-    <t>Pueblo de pertenencia: Maya6</t>
-  </si>
-  <si>
-    <t>Pueblo de pertenencia: Maya7</t>
+    <t xml:space="preserve">PdeP: </t>
+  </si>
+  <si>
+    <t>PdeP: Maya</t>
+  </si>
+  <si>
+    <t>PdeP: Garífuna</t>
+  </si>
+  <si>
+    <t>PdeP: Xinka</t>
+  </si>
+  <si>
+    <t>PdeP: Afrodescendiente / Creole / Afromestizo</t>
+  </si>
+  <si>
+    <t>PdeP: Ladina(o)</t>
+  </si>
+  <si>
+    <t>PdeP: Extranjera(o)</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1327,15 +1339,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1352,61 +1355,22 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1801,6 +1765,55 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1815,20 +1828,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61106B98-FF9F-4D88-B159-8BCCB46AB5F1}" name="Población_por_Pueblo" displayName="Población_por_Pueblo" ref="A4:K344" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{61106B98-FF9F-4D88-B159-8BCCB46AB5F1}" name="Población_por_Pueblo" displayName="Población_por_Pueblo" ref="A4:K344" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A4:K344" xr:uid="{AF59FC27-3EA6-4DEA-8773-CF8417D9B165}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{12094FFA-A70D-41B1-B223-3DB64ADDF1C9}" name="Código" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{FFE4F38B-CAE3-4530-91E6-116DA318B27E}" name="Departamento" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{90B796E7-499D-4889-BAA3-9B472A802572}" name="Código2" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5BCB10C5-EDDB-4559-AC13-C9A28B08EEA9}" name="Municipio" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{69459AC4-0CF8-450B-B399-97585EC3570F}" name="Población total" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{49D3374E-FABF-45D6-903F-9C6826FE652A}" name="Pueblo de pertenencia: Maya" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E7A3181C-5255-4D55-8858-82E5B69501C8}" name="Pueblo de pertenencia: Maya3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{2BAD5F54-4566-439C-8091-7C2AE162533E}" name="Pueblo de pertenencia: Maya4" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8D0E21EE-A8C3-44A5-AA44-58225D2563BD}" name="Pueblo de pertenencia: Maya5" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C01D7111-D42D-4A42-99B9-484E7043AE6D}" name="Pueblo de pertenencia: Maya6" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{846F4AA2-C7BF-4891-9D49-01BBA1D1BD04}" name="Pueblo de pertenencia: Maya7" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{12094FFA-A70D-41B1-B223-3DB64ADDF1C9}" name="Código" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FFE4F38B-CAE3-4530-91E6-116DA318B27E}" name="Departamento" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{90B796E7-499D-4889-BAA3-9B472A802572}" name="Código2" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{5BCB10C5-EDDB-4559-AC13-C9A28B08EEA9}" name="Municipio" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{69459AC4-0CF8-450B-B399-97585EC3570F}" name="Población total" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{49D3374E-FABF-45D6-903F-9C6826FE652A}" name="PdeP: Maya" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E7A3181C-5255-4D55-8858-82E5B69501C8}" name="PdeP: Garífuna" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{2BAD5F54-4566-439C-8091-7C2AE162533E}" name="PdeP: Xinka" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{8D0E21EE-A8C3-44A5-AA44-58225D2563BD}" name="PdeP: Afrodescendiente / Creole / Afromestizo" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C01D7111-D42D-4A42-99B9-484E7043AE6D}" name="PdeP: Ladina(o)" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{846F4AA2-C7BF-4891-9D49-01BBA1D1BD04}" name="PdeP: Extranjera(o)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2103,55 +2116,55 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="D6" sqref="D6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="24"/>
       <c r="O1" s="23"/>
     </row>
-    <row r="2" spans="1:21" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="39"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="19" t="s">
         <v>29</v>
       </c>
@@ -2171,7 +2184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="2"/>
       <c r="C7" s="17"/>
@@ -2194,7 +2207,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
         <v>23</v>
@@ -2224,8 +2237,8 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -2254,7 +2267,7 @@
         <v>20383</v>
       </c>
     </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -2283,7 +2296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -2312,7 +2325,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -2341,7 +2354,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -2486,7 +2499,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -2515,7 +2528,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -2544,7 +2557,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -2573,7 +2586,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -2631,7 +2644,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -2660,7 +2673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -2689,7 +2702,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -2718,7 +2731,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -2747,7 +2760,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -2810,7 +2823,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -2844,7 +2857,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>22</v>
       </c>
@@ -2885,7 +2898,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -2915,7 +2928,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2949,73 +2962,135 @@
   </sheetPr>
   <dimension ref="A1:Q346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
-    <col min="7" max="11" width="29.85546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="29.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="26"/>
       <c r="D1" s="22"/>
+      <c r="F1" s="48" t="str">
+        <f>+F2&amp;F3</f>
+        <v>PdeP: Maya</v>
+      </c>
+      <c r="G1" s="48" t="str">
+        <f t="shared" ref="G1:K1" si="0">+G2&amp;G3</f>
+        <v>PdeP: Garífuna</v>
+      </c>
+      <c r="H1" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>PdeP: Xinka</v>
+      </c>
+      <c r="I1" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>PdeP: Afrodescendiente / Creole / Afromestizo</v>
+      </c>
+      <c r="J1" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>PdeP: Ladina(o)</v>
+      </c>
+      <c r="K1" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>PdeP: Extranjera(o)</v>
+      </c>
       <c r="Q1" s="23"/>
     </row>
-    <row r="2" spans="1:17" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="27"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="F2" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -3051,7 +3126,7 @@
       </c>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>1</v>
       </c>
@@ -3087,7 +3162,7 @@
       </c>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
@@ -3123,7 +3198,7 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -3159,7 +3234,7 @@
       </c>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3195,7 +3270,7 @@
       </c>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>1</v>
       </c>
@@ -3231,7 +3306,7 @@
       </c>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>1</v>
       </c>
@@ -3267,7 +3342,7 @@
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>1</v>
       </c>
@@ -3303,7 +3378,7 @@
       </c>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>1</v>
       </c>
@@ -3339,7 +3414,7 @@
       </c>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>1</v>
       </c>
@@ -3375,7 +3450,7 @@
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>1</v>
       </c>
@@ -3411,7 +3486,7 @@
       </c>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>1</v>
       </c>
@@ -3447,7 +3522,7 @@
       </c>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>1</v>
       </c>
@@ -3483,7 +3558,7 @@
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>1</v>
       </c>
@@ -3519,7 +3594,7 @@
       </c>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>1</v>
       </c>
@@ -3555,7 +3630,7 @@
       </c>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>1</v>
       </c>
@@ -3591,7 +3666,7 @@
       </c>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>1</v>
       </c>
@@ -3627,7 +3702,7 @@
       </c>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>2</v>
       </c>
@@ -3663,7 +3738,7 @@
       </c>
       <c r="L22" s="31"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -3699,7 +3774,7 @@
       </c>
       <c r="L23" s="31"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>2</v>
       </c>
@@ -3735,7 +3810,7 @@
       </c>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -3771,7 +3846,7 @@
       </c>
       <c r="L25" s="31"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>2</v>
       </c>
@@ -3807,7 +3882,7 @@
       </c>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>2</v>
       </c>
@@ -3843,7 +3918,7 @@
       </c>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>2</v>
       </c>
@@ -3879,7 +3954,7 @@
       </c>
       <c r="L28" s="31"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>2</v>
       </c>
@@ -3915,7 +3990,7 @@
       </c>
       <c r="L29" s="31"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>3</v>
       </c>
@@ -3951,7 +4026,7 @@
       </c>
       <c r="L30" s="31"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>3</v>
       </c>
@@ -3987,7 +4062,7 @@
       </c>
       <c r="L31" s="31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>3</v>
       </c>
@@ -4023,7 +4098,7 @@
       </c>
       <c r="L32" s="31"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>3</v>
       </c>
@@ -4059,7 +4134,7 @@
       </c>
       <c r="L33" s="31"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>3</v>
       </c>
@@ -4095,7 +4170,7 @@
       </c>
       <c r="L34" s="31"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>3</v>
       </c>
@@ -4131,7 +4206,7 @@
       </c>
       <c r="L35" s="31"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>3</v>
       </c>
@@ -4167,7 +4242,7 @@
       </c>
       <c r="L36" s="31"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>3</v>
       </c>
@@ -4203,7 +4278,7 @@
       </c>
       <c r="L37" s="31"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>3</v>
       </c>
@@ -4239,7 +4314,7 @@
       </c>
       <c r="L38" s="31"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>3</v>
       </c>
@@ -4275,7 +4350,7 @@
       </c>
       <c r="L39" s="31"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>3</v>
       </c>
@@ -4311,7 +4386,7 @@
       </c>
       <c r="L40" s="31"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -4347,7 +4422,7 @@
       </c>
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>3</v>
       </c>
@@ -4383,7 +4458,7 @@
       </c>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>3</v>
       </c>
@@ -4419,7 +4494,7 @@
       </c>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>3</v>
       </c>
@@ -4455,7 +4530,7 @@
       </c>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>3</v>
       </c>
@@ -4491,7 +4566,7 @@
       </c>
       <c r="L45" s="31"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>4</v>
       </c>
@@ -4527,7 +4602,7 @@
       </c>
       <c r="L46" s="31"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>4</v>
       </c>
@@ -4563,7 +4638,7 @@
       </c>
       <c r="L47" s="31"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -4599,7 +4674,7 @@
       </c>
       <c r="L48" s="31"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>4</v>
       </c>
@@ -4635,7 +4710,7 @@
       </c>
       <c r="L49" s="31"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>4</v>
       </c>
@@ -4671,7 +4746,7 @@
       </c>
       <c r="L50" s="31"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>4</v>
       </c>
@@ -4707,7 +4782,7 @@
       </c>
       <c r="L51" s="31"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>4</v>
       </c>
@@ -4743,7 +4818,7 @@
       </c>
       <c r="L52" s="31"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>4</v>
       </c>
@@ -4779,7 +4854,7 @@
       </c>
       <c r="L53" s="31"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>4</v>
       </c>
@@ -4815,7 +4890,7 @@
       </c>
       <c r="L54" s="31"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>4</v>
       </c>
@@ -4851,7 +4926,7 @@
       </c>
       <c r="L55" s="31"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>4</v>
       </c>
@@ -4887,7 +4962,7 @@
       </c>
       <c r="L56" s="31"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>4</v>
       </c>
@@ -4923,7 +4998,7 @@
       </c>
       <c r="L57" s="31"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>4</v>
       </c>
@@ -4959,7 +5034,7 @@
       </c>
       <c r="L58" s="31"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>4</v>
       </c>
@@ -4995,7 +5070,7 @@
       </c>
       <c r="L59" s="31"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>4</v>
       </c>
@@ -5031,7 +5106,7 @@
       </c>
       <c r="L60" s="31"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>4</v>
       </c>
@@ -5067,7 +5142,7 @@
       </c>
       <c r="L61" s="31"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>5</v>
       </c>
@@ -5103,7 +5178,7 @@
       </c>
       <c r="L62" s="31"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>5</v>
       </c>
@@ -5139,7 +5214,7 @@
       </c>
       <c r="L63" s="31"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>5</v>
       </c>
@@ -5175,7 +5250,7 @@
       </c>
       <c r="L64" s="31"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>5</v>
       </c>
@@ -5211,7 +5286,7 @@
       </c>
       <c r="L65" s="31"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>5</v>
       </c>
@@ -5247,7 +5322,7 @@
       </c>
       <c r="L66" s="31"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>5</v>
       </c>
@@ -5283,7 +5358,7 @@
       </c>
       <c r="L67" s="31"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>5</v>
       </c>
@@ -5319,7 +5394,7 @@
       </c>
       <c r="L68" s="31"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>5</v>
       </c>
@@ -5355,7 +5430,7 @@
       </c>
       <c r="L69" s="31"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>5</v>
       </c>
@@ -5391,7 +5466,7 @@
       </c>
       <c r="L70" s="31"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>5</v>
       </c>
@@ -5427,7 +5502,7 @@
       </c>
       <c r="L71" s="31"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>5</v>
       </c>
@@ -5463,7 +5538,7 @@
       </c>
       <c r="L72" s="31"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>5</v>
       </c>
@@ -5499,7 +5574,7 @@
       </c>
       <c r="L73" s="31"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>5</v>
       </c>
@@ -5535,7 +5610,7 @@
       </c>
       <c r="L74" s="31"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>5</v>
       </c>
@@ -5571,7 +5646,7 @@
       </c>
       <c r="L75" s="31"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>6</v>
       </c>
@@ -5607,7 +5682,7 @@
       </c>
       <c r="L76" s="31"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>6</v>
       </c>
@@ -5643,7 +5718,7 @@
       </c>
       <c r="L77" s="31"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>6</v>
       </c>
@@ -5679,7 +5754,7 @@
       </c>
       <c r="L78" s="31"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>6</v>
       </c>
@@ -5715,7 +5790,7 @@
       </c>
       <c r="L79" s="31"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>6</v>
       </c>
@@ -5751,7 +5826,7 @@
       </c>
       <c r="L80" s="31"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>6</v>
       </c>
@@ -5787,7 +5862,7 @@
       </c>
       <c r="L81" s="31"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>6</v>
       </c>
@@ -5823,7 +5898,7 @@
       </c>
       <c r="L82" s="31"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>6</v>
       </c>
@@ -5859,7 +5934,7 @@
       </c>
       <c r="L83" s="31"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>6</v>
       </c>
@@ -5895,7 +5970,7 @@
       </c>
       <c r="L84" s="31"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>6</v>
       </c>
@@ -5931,7 +6006,7 @@
       </c>
       <c r="L85" s="31"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>6</v>
       </c>
@@ -5967,7 +6042,7 @@
       </c>
       <c r="L86" s="31"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>6</v>
       </c>
@@ -6003,7 +6078,7 @@
       </c>
       <c r="L87" s="31"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>6</v>
       </c>
@@ -6039,7 +6114,7 @@
       </c>
       <c r="L88" s="31"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>6</v>
       </c>
@@ -6075,7 +6150,7 @@
       </c>
       <c r="L89" s="31"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>7</v>
       </c>
@@ -6111,7 +6186,7 @@
       </c>
       <c r="L90" s="31"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>7</v>
       </c>
@@ -6147,7 +6222,7 @@
       </c>
       <c r="L91" s="31"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>7</v>
       </c>
@@ -6183,7 +6258,7 @@
       </c>
       <c r="L92" s="31"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>7</v>
       </c>
@@ -6219,7 +6294,7 @@
       </c>
       <c r="L93" s="31"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>7</v>
       </c>
@@ -6255,7 +6330,7 @@
       </c>
       <c r="L94" s="31"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>7</v>
       </c>
@@ -6291,7 +6366,7 @@
       </c>
       <c r="L95" s="31"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>7</v>
       </c>
@@ -6327,7 +6402,7 @@
       </c>
       <c r="L96" s="31"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>7</v>
       </c>
@@ -6363,7 +6438,7 @@
       </c>
       <c r="L97" s="31"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>7</v>
       </c>
@@ -6399,7 +6474,7 @@
       </c>
       <c r="L98" s="31"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>7</v>
       </c>
@@ -6435,7 +6510,7 @@
       </c>
       <c r="L99" s="31"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>7</v>
       </c>
@@ -6471,7 +6546,7 @@
       </c>
       <c r="L100" s="31"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>7</v>
       </c>
@@ -6507,7 +6582,7 @@
       </c>
       <c r="L101" s="31"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>7</v>
       </c>
@@ -6543,7 +6618,7 @@
       </c>
       <c r="L102" s="31"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>7</v>
       </c>
@@ -6579,7 +6654,7 @@
       </c>
       <c r="L103" s="31"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>7</v>
       </c>
@@ -6615,7 +6690,7 @@
       </c>
       <c r="L104" s="31"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>7</v>
       </c>
@@ -6651,7 +6726,7 @@
       </c>
       <c r="L105" s="31"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>7</v>
       </c>
@@ -6687,7 +6762,7 @@
       </c>
       <c r="L106" s="31"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>7</v>
       </c>
@@ -6723,7 +6798,7 @@
       </c>
       <c r="L107" s="31"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>7</v>
       </c>
@@ -6759,7 +6834,7 @@
       </c>
       <c r="L108" s="31"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>8</v>
       </c>
@@ -6795,7 +6870,7 @@
       </c>
       <c r="L109" s="31"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>8</v>
       </c>
@@ -6831,7 +6906,7 @@
       </c>
       <c r="L110" s="31"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>8</v>
       </c>
@@ -6867,7 +6942,7 @@
       </c>
       <c r="L111" s="31"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>8</v>
       </c>
@@ -6903,7 +6978,7 @@
       </c>
       <c r="L112" s="31"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>8</v>
       </c>
@@ -6939,7 +7014,7 @@
       </c>
       <c r="L113" s="31"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>8</v>
       </c>
@@ -6975,7 +7050,7 @@
       </c>
       <c r="L114" s="31"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>8</v>
       </c>
@@ -7011,7 +7086,7 @@
       </c>
       <c r="L115" s="31"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>8</v>
       </c>
@@ -7047,7 +7122,7 @@
       </c>
       <c r="L116" s="31"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>9</v>
       </c>
@@ -7083,7 +7158,7 @@
       </c>
       <c r="L117" s="31"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>9</v>
       </c>
@@ -7119,7 +7194,7 @@
       </c>
       <c r="L118" s="31"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>9</v>
       </c>
@@ -7155,7 +7230,7 @@
       </c>
       <c r="L119" s="31"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>9</v>
       </c>
@@ -7191,7 +7266,7 @@
       </c>
       <c r="L120" s="31"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>9</v>
       </c>
@@ -7227,7 +7302,7 @@
       </c>
       <c r="L121" s="31"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>9</v>
       </c>
@@ -7263,7 +7338,7 @@
       </c>
       <c r="L122" s="31"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>9</v>
       </c>
@@ -7299,7 +7374,7 @@
       </c>
       <c r="L123" s="31"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>9</v>
       </c>
@@ -7335,7 +7410,7 @@
       </c>
       <c r="L124" s="31"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>9</v>
       </c>
@@ -7371,7 +7446,7 @@
       </c>
       <c r="L125" s="31"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>9</v>
       </c>
@@ -7407,7 +7482,7 @@
       </c>
       <c r="L126" s="31"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>9</v>
       </c>
@@ -7443,7 +7518,7 @@
       </c>
       <c r="L127" s="31"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>9</v>
       </c>
@@ -7479,7 +7554,7 @@
       </c>
       <c r="L128" s="31"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>9</v>
       </c>
@@ -7515,7 +7590,7 @@
       </c>
       <c r="L129" s="31"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>9</v>
       </c>
@@ -7551,7 +7626,7 @@
       </c>
       <c r="L130" s="31"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="18">
         <v>9</v>
       </c>
@@ -7587,7 +7662,7 @@
       </c>
       <c r="L131" s="31"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="18">
         <v>9</v>
       </c>
@@ -7623,7 +7698,7 @@
       </c>
       <c r="L132" s="31"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="18">
         <v>9</v>
       </c>
@@ -7659,7 +7734,7 @@
       </c>
       <c r="L133" s="31"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>9</v>
       </c>
@@ -7695,7 +7770,7 @@
       </c>
       <c r="L134" s="31"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>9</v>
       </c>
@@ -7731,7 +7806,7 @@
       </c>
       <c r="L135" s="31"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>9</v>
       </c>
@@ -7767,7 +7842,7 @@
       </c>
       <c r="L136" s="31"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>9</v>
       </c>
@@ -7803,7 +7878,7 @@
       </c>
       <c r="L137" s="31"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
         <v>9</v>
       </c>
@@ -7839,7 +7914,7 @@
       </c>
       <c r="L138" s="31"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="18">
         <v>9</v>
       </c>
@@ -7875,7 +7950,7 @@
       </c>
       <c r="L139" s="31"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>9</v>
       </c>
@@ -7911,7 +7986,7 @@
       </c>
       <c r="L140" s="31"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>10</v>
       </c>
@@ -7947,7 +8022,7 @@
       </c>
       <c r="L141" s="31"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>10</v>
       </c>
@@ -7983,7 +8058,7 @@
       </c>
       <c r="L142" s="31"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="18">
         <v>10</v>
       </c>
@@ -8019,7 +8094,7 @@
       </c>
       <c r="L143" s="31"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="18">
         <v>10</v>
       </c>
@@ -8055,7 +8130,7 @@
       </c>
       <c r="L144" s="31"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="18">
         <v>10</v>
       </c>
@@ -8091,7 +8166,7 @@
       </c>
       <c r="L145" s="31"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>10</v>
       </c>
@@ -8127,7 +8202,7 @@
       </c>
       <c r="L146" s="31"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <v>10</v>
       </c>
@@ -8163,7 +8238,7 @@
       </c>
       <c r="L147" s="31"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="18">
         <v>10</v>
       </c>
@@ -8199,7 +8274,7 @@
       </c>
       <c r="L148" s="31"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="18">
         <v>10</v>
       </c>
@@ -8235,7 +8310,7 @@
       </c>
       <c r="L149" s="31"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>10</v>
       </c>
@@ -8271,7 +8346,7 @@
       </c>
       <c r="L150" s="31"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="18">
         <v>10</v>
       </c>
@@ -8307,7 +8382,7 @@
       </c>
       <c r="L151" s="31"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>10</v>
       </c>
@@ -8343,7 +8418,7 @@
       </c>
       <c r="L152" s="31"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="18">
         <v>10</v>
       </c>
@@ -8379,7 +8454,7 @@
       </c>
       <c r="L153" s="31"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>10</v>
       </c>
@@ -8415,7 +8490,7 @@
       </c>
       <c r="L154" s="31"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="18">
         <v>10</v>
       </c>
@@ -8451,7 +8526,7 @@
       </c>
       <c r="L155" s="31"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
         <v>10</v>
       </c>
@@ -8487,7 +8562,7 @@
       </c>
       <c r="L156" s="31"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="18">
         <v>10</v>
       </c>
@@ -8523,7 +8598,7 @@
       </c>
       <c r="L157" s="31"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="18">
         <v>10</v>
       </c>
@@ -8559,7 +8634,7 @@
       </c>
       <c r="L158" s="31"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="18">
         <v>10</v>
       </c>
@@ -8595,7 +8670,7 @@
       </c>
       <c r="L159" s="31"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="18">
         <v>10</v>
       </c>
@@ -8631,7 +8706,7 @@
       </c>
       <c r="L160" s="31"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="18">
         <v>10</v>
       </c>
@@ -8667,7 +8742,7 @@
       </c>
       <c r="L161" s="31"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="18">
         <v>11</v>
       </c>
@@ -8703,7 +8778,7 @@
       </c>
       <c r="L162" s="31"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="18">
         <v>11</v>
       </c>
@@ -8739,7 +8814,7 @@
       </c>
       <c r="L163" s="31"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="18">
         <v>11</v>
       </c>
@@ -8775,7 +8850,7 @@
       </c>
       <c r="L164" s="31"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="18">
         <v>11</v>
       </c>
@@ -8811,7 +8886,7 @@
       </c>
       <c r="L165" s="31"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="18">
         <v>11</v>
       </c>
@@ -8847,7 +8922,7 @@
       </c>
       <c r="L166" s="31"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="18">
         <v>11</v>
       </c>
@@ -8883,7 +8958,7 @@
       </c>
       <c r="L167" s="31"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="18">
         <v>11</v>
       </c>
@@ -8919,7 +8994,7 @@
       </c>
       <c r="L168" s="31"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="18">
         <v>11</v>
       </c>
@@ -8955,7 +9030,7 @@
       </c>
       <c r="L169" s="31"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="18">
         <v>11</v>
       </c>
@@ -8991,7 +9066,7 @@
       </c>
       <c r="L170" s="31"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="18">
         <v>12</v>
       </c>
@@ -9027,7 +9102,7 @@
       </c>
       <c r="L171" s="31"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="18">
         <v>12</v>
       </c>
@@ -9063,7 +9138,7 @@
       </c>
       <c r="L172" s="31"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="18">
         <v>12</v>
       </c>
@@ -9099,7 +9174,7 @@
       </c>
       <c r="L173" s="31"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>12</v>
       </c>
@@ -9135,7 +9210,7 @@
       </c>
       <c r="L174" s="31"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="18">
         <v>12</v>
       </c>
@@ -9171,7 +9246,7 @@
       </c>
       <c r="L175" s="31"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="18">
         <v>12</v>
       </c>
@@ -9207,7 +9282,7 @@
       </c>
       <c r="L176" s="31"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="18">
         <v>12</v>
       </c>
@@ -9243,7 +9318,7 @@
       </c>
       <c r="L177" s="31"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="18">
         <v>12</v>
       </c>
@@ -9279,7 +9354,7 @@
       </c>
       <c r="L178" s="31"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="18">
         <v>12</v>
       </c>
@@ -9315,7 +9390,7 @@
       </c>
       <c r="L179" s="31"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="18">
         <v>12</v>
       </c>
@@ -9351,7 +9426,7 @@
       </c>
       <c r="L180" s="31"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="18">
         <v>12</v>
       </c>
@@ -9387,7 +9462,7 @@
       </c>
       <c r="L181" s="31"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="18">
         <v>12</v>
       </c>
@@ -9423,7 +9498,7 @@
       </c>
       <c r="L182" s="31"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="18">
         <v>12</v>
       </c>
@@ -9459,7 +9534,7 @@
       </c>
       <c r="L183" s="31"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="18">
         <v>12</v>
       </c>
@@ -9495,7 +9570,7 @@
       </c>
       <c r="L184" s="31"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="18">
         <v>12</v>
       </c>
@@ -9531,7 +9606,7 @@
       </c>
       <c r="L185" s="31"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="18">
         <v>12</v>
       </c>
@@ -9567,7 +9642,7 @@
       </c>
       <c r="L186" s="31"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="18">
         <v>12</v>
       </c>
@@ -9603,7 +9678,7 @@
       </c>
       <c r="L187" s="31"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="18">
         <v>12</v>
       </c>
@@ -9639,7 +9714,7 @@
       </c>
       <c r="L188" s="31"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="18">
         <v>12</v>
       </c>
@@ -9675,7 +9750,7 @@
       </c>
       <c r="L189" s="31"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="18">
         <v>12</v>
       </c>
@@ -9711,7 +9786,7 @@
       </c>
       <c r="L190" s="31"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="18">
         <v>12</v>
       </c>
@@ -9747,7 +9822,7 @@
       </c>
       <c r="L191" s="31"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="18">
         <v>12</v>
       </c>
@@ -9783,7 +9858,7 @@
       </c>
       <c r="L192" s="31"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="18">
         <v>12</v>
       </c>
@@ -9819,7 +9894,7 @@
       </c>
       <c r="L193" s="31"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="18">
         <v>12</v>
       </c>
@@ -9855,7 +9930,7 @@
       </c>
       <c r="L194" s="31"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="18">
         <v>12</v>
       </c>
@@ -9891,7 +9966,7 @@
       </c>
       <c r="L195" s="31"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="18">
         <v>12</v>
       </c>
@@ -9927,7 +10002,7 @@
       </c>
       <c r="L196" s="31"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="18">
         <v>12</v>
       </c>
@@ -9963,7 +10038,7 @@
       </c>
       <c r="L197" s="31"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="18">
         <v>12</v>
       </c>
@@ -9999,7 +10074,7 @@
       </c>
       <c r="L198" s="31"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="18">
         <v>12</v>
       </c>
@@ -10035,7 +10110,7 @@
       </c>
       <c r="L199" s="31"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="18">
         <v>12</v>
       </c>
@@ -10071,7 +10146,7 @@
       </c>
       <c r="L200" s="31"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="18">
         <v>13</v>
       </c>
@@ -10107,7 +10182,7 @@
       </c>
       <c r="L201" s="31"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="18">
         <v>13</v>
       </c>
@@ -10143,7 +10218,7 @@
       </c>
       <c r="L202" s="31"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="18">
         <v>13</v>
       </c>
@@ -10179,7 +10254,7 @@
       </c>
       <c r="L203" s="31"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>13</v>
       </c>
@@ -10215,7 +10290,7 @@
       </c>
       <c r="L204" s="31"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="18">
         <v>13</v>
       </c>
@@ -10251,7 +10326,7 @@
       </c>
       <c r="L205" s="31"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="18">
         <v>13</v>
       </c>
@@ -10287,7 +10362,7 @@
       </c>
       <c r="L206" s="31"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="18">
         <v>13</v>
       </c>
@@ -10323,7 +10398,7 @@
       </c>
       <c r="L207" s="31"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="18">
         <v>13</v>
       </c>
@@ -10359,7 +10434,7 @@
       </c>
       <c r="L208" s="31"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="18">
         <v>13</v>
       </c>
@@ -10395,7 +10470,7 @@
       </c>
       <c r="L209" s="31"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="18">
         <v>13</v>
       </c>
@@ -10431,7 +10506,7 @@
       </c>
       <c r="L210" s="31"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="18">
         <v>13</v>
       </c>
@@ -10467,7 +10542,7 @@
       </c>
       <c r="L211" s="31"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="18">
         <v>13</v>
       </c>
@@ -10503,7 +10578,7 @@
       </c>
       <c r="L212" s="31"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="18">
         <v>13</v>
       </c>
@@ -10539,7 +10614,7 @@
       </c>
       <c r="L213" s="31"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="18">
         <v>13</v>
       </c>
@@ -10575,7 +10650,7 @@
       </c>
       <c r="L214" s="31"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="18">
         <v>13</v>
       </c>
@@ -10611,7 +10686,7 @@
       </c>
       <c r="L215" s="31"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="18">
         <v>13</v>
       </c>
@@ -10647,7 +10722,7 @@
       </c>
       <c r="L216" s="31"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="18">
         <v>13</v>
       </c>
@@ -10683,7 +10758,7 @@
       </c>
       <c r="L217" s="31"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="18">
         <v>13</v>
       </c>
@@ -10719,7 +10794,7 @@
       </c>
       <c r="L218" s="31"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="18">
         <v>13</v>
       </c>
@@ -10755,7 +10830,7 @@
       </c>
       <c r="L219" s="31"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="18">
         <v>13</v>
       </c>
@@ -10791,7 +10866,7 @@
       </c>
       <c r="L220" s="31"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="18">
         <v>13</v>
       </c>
@@ -10827,7 +10902,7 @@
       </c>
       <c r="L221" s="31"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="18">
         <v>13</v>
       </c>
@@ -10863,7 +10938,7 @@
       </c>
       <c r="L222" s="31"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="18">
         <v>13</v>
       </c>
@@ -10899,7 +10974,7 @@
       </c>
       <c r="L223" s="31"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="18">
         <v>13</v>
       </c>
@@ -10935,7 +11010,7 @@
       </c>
       <c r="L224" s="31"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="18">
         <v>13</v>
       </c>
@@ -10971,7 +11046,7 @@
       </c>
       <c r="L225" s="31"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="18">
         <v>13</v>
       </c>
@@ -11007,7 +11082,7 @@
       </c>
       <c r="L226" s="31"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="18">
         <v>13</v>
       </c>
@@ -11043,7 +11118,7 @@
       </c>
       <c r="L227" s="31"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="18">
         <v>13</v>
       </c>
@@ -11079,7 +11154,7 @@
       </c>
       <c r="L228" s="31"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="18">
         <v>13</v>
       </c>
@@ -11115,7 +11190,7 @@
       </c>
       <c r="L229" s="31"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="18">
         <v>13</v>
       </c>
@@ -11151,7 +11226,7 @@
       </c>
       <c r="L230" s="31"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="18">
         <v>13</v>
       </c>
@@ -11187,7 +11262,7 @@
       </c>
       <c r="L231" s="31"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="18">
         <v>13</v>
       </c>
@@ -11223,7 +11298,7 @@
       </c>
       <c r="L232" s="31"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="18">
         <v>13</v>
       </c>
@@ -11259,7 +11334,7 @@
       </c>
       <c r="L233" s="31"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="18">
         <v>14</v>
       </c>
@@ -11295,7 +11370,7 @@
       </c>
       <c r="L234" s="31"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="18">
         <v>14</v>
       </c>
@@ -11331,7 +11406,7 @@
       </c>
       <c r="L235" s="31"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="18">
         <v>14</v>
       </c>
@@ -11367,7 +11442,7 @@
       </c>
       <c r="L236" s="31"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="18">
         <v>14</v>
       </c>
@@ -11403,7 +11478,7 @@
       </c>
       <c r="L237" s="31"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="18">
         <v>14</v>
       </c>
@@ -11439,7 +11514,7 @@
       </c>
       <c r="L238" s="31"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="18">
         <v>14</v>
       </c>
@@ -11475,7 +11550,7 @@
       </c>
       <c r="L239" s="31"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="18">
         <v>14</v>
       </c>
@@ -11511,7 +11586,7 @@
       </c>
       <c r="L240" s="31"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="18">
         <v>14</v>
       </c>
@@ -11547,7 +11622,7 @@
       </c>
       <c r="L241" s="31"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="18">
         <v>14</v>
       </c>
@@ -11583,7 +11658,7 @@
       </c>
       <c r="L242" s="31"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="18">
         <v>14</v>
       </c>
@@ -11619,7 +11694,7 @@
       </c>
       <c r="L243" s="31"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="18">
         <v>14</v>
       </c>
@@ -11655,7 +11730,7 @@
       </c>
       <c r="L244" s="31"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="18">
         <v>14</v>
       </c>
@@ -11691,7 +11766,7 @@
       </c>
       <c r="L245" s="31"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="18">
         <v>14</v>
       </c>
@@ -11727,7 +11802,7 @@
       </c>
       <c r="L246" s="31"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="18">
         <v>14</v>
       </c>
@@ -11763,7 +11838,7 @@
       </c>
       <c r="L247" s="31"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="18">
         <v>14</v>
       </c>
@@ -11799,7 +11874,7 @@
       </c>
       <c r="L248" s="31"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="18">
         <v>14</v>
       </c>
@@ -11835,7 +11910,7 @@
       </c>
       <c r="L249" s="31"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="18">
         <v>14</v>
       </c>
@@ -11871,7 +11946,7 @@
       </c>
       <c r="L250" s="31"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="18">
         <v>14</v>
       </c>
@@ -11907,7 +11982,7 @@
       </c>
       <c r="L251" s="31"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="18">
         <v>14</v>
       </c>
@@ -11943,7 +12018,7 @@
       </c>
       <c r="L252" s="31"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="18">
         <v>14</v>
       </c>
@@ -11979,7 +12054,7 @@
       </c>
       <c r="L253" s="31"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="18">
         <v>14</v>
       </c>
@@ -12015,7 +12090,7 @@
       </c>
       <c r="L254" s="31"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="18">
         <v>15</v>
       </c>
@@ -12051,7 +12126,7 @@
       </c>
       <c r="L255" s="31"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="18">
         <v>15</v>
       </c>
@@ -12087,7 +12162,7 @@
       </c>
       <c r="L256" s="31"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="18">
         <v>15</v>
       </c>
@@ -12123,7 +12198,7 @@
       </c>
       <c r="L257" s="31"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="18">
         <v>15</v>
       </c>
@@ -12159,7 +12234,7 @@
       </c>
       <c r="L258" s="31"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="18">
         <v>15</v>
       </c>
@@ -12195,7 +12270,7 @@
       </c>
       <c r="L259" s="31"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="18">
         <v>15</v>
       </c>
@@ -12231,7 +12306,7 @@
       </c>
       <c r="L260" s="31"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="18">
         <v>15</v>
       </c>
@@ -12267,7 +12342,7 @@
       </c>
       <c r="L261" s="31"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="18">
         <v>15</v>
       </c>
@@ -12303,7 +12378,7 @@
       </c>
       <c r="L262" s="31"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="18">
         <v>16</v>
       </c>
@@ -12339,7 +12414,7 @@
       </c>
       <c r="L263" s="31"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="18">
         <v>16</v>
       </c>
@@ -12375,7 +12450,7 @@
       </c>
       <c r="L264" s="31"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="18">
         <v>16</v>
       </c>
@@ -12411,7 +12486,7 @@
       </c>
       <c r="L265" s="31"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="18">
         <v>16</v>
       </c>
@@ -12447,7 +12522,7 @@
       </c>
       <c r="L266" s="31"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="18">
         <v>16</v>
       </c>
@@ -12483,7 +12558,7 @@
       </c>
       <c r="L267" s="31"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="18">
         <v>16</v>
       </c>
@@ -12519,7 +12594,7 @@
       </c>
       <c r="L268" s="31"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="18">
         <v>16</v>
       </c>
@@ -12555,7 +12630,7 @@
       </c>
       <c r="L269" s="31"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="18">
         <v>16</v>
       </c>
@@ -12591,7 +12666,7 @@
       </c>
       <c r="L270" s="31"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="18">
         <v>16</v>
       </c>
@@ -12627,7 +12702,7 @@
       </c>
       <c r="L271" s="31"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="18">
         <v>16</v>
       </c>
@@ -12663,7 +12738,7 @@
       </c>
       <c r="L272" s="31"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="18">
         <v>16</v>
       </c>
@@ -12699,7 +12774,7 @@
       </c>
       <c r="L273" s="31"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="18">
         <v>16</v>
       </c>
@@ -12735,7 +12810,7 @@
       </c>
       <c r="L274" s="31"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="18">
         <v>16</v>
       </c>
@@ -12771,7 +12846,7 @@
       </c>
       <c r="L275" s="31"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="18">
         <v>16</v>
       </c>
@@ -12807,7 +12882,7 @@
       </c>
       <c r="L276" s="31"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="18">
         <v>16</v>
       </c>
@@ -12843,7 +12918,7 @@
       </c>
       <c r="L277" s="31"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="18">
         <v>16</v>
       </c>
@@ -12879,7 +12954,7 @@
       </c>
       <c r="L278" s="31"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="18">
         <v>16</v>
       </c>
@@ -12915,7 +12990,7 @@
       </c>
       <c r="L279" s="31"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="18">
         <v>17</v>
       </c>
@@ -12951,7 +13026,7 @@
       </c>
       <c r="L280" s="31"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="18">
         <v>17</v>
       </c>
@@ -12987,7 +13062,7 @@
       </c>
       <c r="L281" s="31"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="18">
         <v>17</v>
       </c>
@@ -13023,7 +13098,7 @@
       </c>
       <c r="L282" s="31"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="18">
         <v>17</v>
       </c>
@@ -13059,7 +13134,7 @@
       </c>
       <c r="L283" s="31"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="18">
         <v>17</v>
       </c>
@@ -13095,7 +13170,7 @@
       </c>
       <c r="L284" s="31"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="18">
         <v>17</v>
       </c>
@@ -13131,7 +13206,7 @@
       </c>
       <c r="L285" s="31"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="18">
         <v>17</v>
       </c>
@@ -13167,7 +13242,7 @@
       </c>
       <c r="L286" s="31"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="18">
         <v>17</v>
       </c>
@@ -13203,7 +13278,7 @@
       </c>
       <c r="L287" s="31"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="18">
         <v>17</v>
       </c>
@@ -13239,7 +13314,7 @@
       </c>
       <c r="L288" s="31"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="18">
         <v>17</v>
       </c>
@@ -13275,7 +13350,7 @@
       </c>
       <c r="L289" s="31"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="18">
         <v>17</v>
       </c>
@@ -13311,7 +13386,7 @@
       </c>
       <c r="L290" s="31"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="18">
         <v>17</v>
       </c>
@@ -13347,7 +13422,7 @@
       </c>
       <c r="L291" s="31"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="18">
         <v>17</v>
       </c>
@@ -13383,7 +13458,7 @@
       </c>
       <c r="L292" s="31"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="18">
         <v>17</v>
       </c>
@@ -13419,7 +13494,7 @@
       </c>
       <c r="L293" s="31"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="18">
         <v>18</v>
       </c>
@@ -13455,7 +13530,7 @@
       </c>
       <c r="L294" s="31"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="18">
         <v>18</v>
       </c>
@@ -13491,7 +13566,7 @@
       </c>
       <c r="L295" s="31"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="18">
         <v>18</v>
       </c>
@@ -13527,7 +13602,7 @@
       </c>
       <c r="L296" s="31"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="18">
         <v>18</v>
       </c>
@@ -13563,7 +13638,7 @@
       </c>
       <c r="L297" s="31"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="18">
         <v>18</v>
       </c>
@@ -13599,7 +13674,7 @@
       </c>
       <c r="L298" s="31"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="18">
         <v>19</v>
       </c>
@@ -13635,7 +13710,7 @@
       </c>
       <c r="L299" s="31"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="18">
         <v>19</v>
       </c>
@@ -13671,7 +13746,7 @@
       </c>
       <c r="L300" s="31"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="18">
         <v>19</v>
       </c>
@@ -13707,7 +13782,7 @@
       </c>
       <c r="L301" s="31"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="18">
         <v>19</v>
       </c>
@@ -13743,7 +13818,7 @@
       </c>
       <c r="L302" s="31"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="18">
         <v>19</v>
       </c>
@@ -13779,7 +13854,7 @@
       </c>
       <c r="L303" s="31"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="18">
         <v>19</v>
       </c>
@@ -13815,7 +13890,7 @@
       </c>
       <c r="L304" s="31"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="18">
         <v>19</v>
       </c>
@@ -13851,7 +13926,7 @@
       </c>
       <c r="L305" s="31"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="18">
         <v>19</v>
       </c>
@@ -13887,7 +13962,7 @@
       </c>
       <c r="L306" s="31"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="18">
         <v>19</v>
       </c>
@@ -13923,7 +13998,7 @@
       </c>
       <c r="L307" s="31"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="18">
         <v>19</v>
       </c>
@@ -13959,7 +14034,7 @@
       </c>
       <c r="L308" s="31"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="18">
         <v>19</v>
       </c>
@@ -13995,7 +14070,7 @@
       </c>
       <c r="L309" s="31"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="18">
         <v>20</v>
       </c>
@@ -14031,7 +14106,7 @@
       </c>
       <c r="L310" s="31"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="18">
         <v>20</v>
       </c>
@@ -14067,7 +14142,7 @@
       </c>
       <c r="L311" s="31"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="18">
         <v>20</v>
       </c>
@@ -14103,7 +14178,7 @@
       </c>
       <c r="L312" s="31"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="18">
         <v>20</v>
       </c>
@@ -14139,7 +14214,7 @@
       </c>
       <c r="L313" s="31"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="18">
         <v>20</v>
       </c>
@@ -14175,7 +14250,7 @@
       </c>
       <c r="L314" s="31"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="18">
         <v>20</v>
       </c>
@@ -14211,7 +14286,7 @@
       </c>
       <c r="L315" s="31"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="18">
         <v>20</v>
       </c>
@@ -14247,7 +14322,7 @@
       </c>
       <c r="L316" s="31"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="18">
         <v>20</v>
       </c>
@@ -14283,7 +14358,7 @@
       </c>
       <c r="L317" s="31"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="18">
         <v>20</v>
       </c>
@@ -14319,7 +14394,7 @@
       </c>
       <c r="L318" s="31"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="18">
         <v>20</v>
       </c>
@@ -14355,7 +14430,7 @@
       </c>
       <c r="L319" s="31"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="18">
         <v>20</v>
       </c>
@@ -14391,7 +14466,7 @@
       </c>
       <c r="L320" s="31"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="18">
         <v>21</v>
       </c>
@@ -14427,7 +14502,7 @@
       </c>
       <c r="L321" s="31"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="18">
         <v>21</v>
       </c>
@@ -14463,7 +14538,7 @@
       </c>
       <c r="L322" s="31"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="18">
         <v>21</v>
       </c>
@@ -14499,7 +14574,7 @@
       </c>
       <c r="L323" s="31"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="18">
         <v>21</v>
       </c>
@@ -14535,7 +14610,7 @@
       </c>
       <c r="L324" s="31"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="18">
         <v>21</v>
       </c>
@@ -14571,7 +14646,7 @@
       </c>
       <c r="L325" s="31"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="18">
         <v>21</v>
       </c>
@@ -14607,7 +14682,7 @@
       </c>
       <c r="L326" s="31"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="18">
         <v>21</v>
       </c>
@@ -14643,7 +14718,7 @@
       </c>
       <c r="L327" s="31"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="18">
         <v>22</v>
       </c>
@@ -14679,7 +14754,7 @@
       </c>
       <c r="L328" s="31"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="18">
         <v>22</v>
       </c>
@@ -14715,7 +14790,7 @@
       </c>
       <c r="L329" s="31"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="18">
         <v>22</v>
       </c>
@@ -14751,7 +14826,7 @@
       </c>
       <c r="L330" s="31"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="18">
         <v>22</v>
       </c>
@@ -14787,7 +14862,7 @@
       </c>
       <c r="L331" s="31"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="18">
         <v>22</v>
       </c>
@@ -14823,7 +14898,7 @@
       </c>
       <c r="L332" s="31"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="18">
         <v>22</v>
       </c>
@@ -14859,7 +14934,7 @@
       </c>
       <c r="L333" s="31"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="18">
         <v>22</v>
       </c>
@@ -14895,7 +14970,7 @@
       </c>
       <c r="L334" s="31"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="18">
         <v>22</v>
       </c>
@@ -14931,7 +15006,7 @@
       </c>
       <c r="L335" s="31"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="18">
         <v>22</v>
       </c>
@@ -14967,7 +15042,7 @@
       </c>
       <c r="L336" s="31"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="18">
         <v>22</v>
       </c>
@@ -15003,7 +15078,7 @@
       </c>
       <c r="L337" s="31"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="18">
         <v>22</v>
       </c>
@@ -15039,7 +15114,7 @@
       </c>
       <c r="L338" s="31"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" s="18">
         <v>22</v>
       </c>
@@ -15075,7 +15150,7 @@
       </c>
       <c r="L339" s="31"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="18">
         <v>22</v>
       </c>
@@ -15111,7 +15186,7 @@
       </c>
       <c r="L340" s="31"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="18">
         <v>22</v>
       </c>
@@ -15147,7 +15222,7 @@
       </c>
       <c r="L341" s="31"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" s="18">
         <v>22</v>
       </c>
@@ -15183,7 +15258,7 @@
       </c>
       <c r="L342" s="31"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" s="18">
         <v>22</v>
       </c>
@@ -15219,7 +15294,7 @@
       </c>
       <c r="L343" s="31"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
         <v>22</v>
       </c>
@@ -15255,25 +15330,25 @@
       </c>
       <c r="L344" s="31"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A345" s="44"/>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A345" s="41"/>
       <c r="B345" s="2"/>
       <c r="D345" s="29"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A346" s="44" t="s">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A346" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B346" s="45"/>
-      <c r="C346" s="46"/>
+      <c r="B346" s="42"/>
+      <c r="C346" s="43"/>
       <c r="D346" s="34"/>
-      <c r="E346" s="47"/>
-      <c r="F346" s="47"/>
-      <c r="G346" s="47"/>
-      <c r="H346" s="47"/>
-      <c r="I346" s="47"/>
-      <c r="J346" s="47"/>
-      <c r="K346" s="47"/>
+      <c r="E346" s="44"/>
+      <c r="F346" s="44"/>
+      <c r="G346" s="44"/>
+      <c r="H346" s="44"/>
+      <c r="I346" s="44"/>
+      <c r="J346" s="44"/>
+      <c r="K346" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
